--- a/medicine/Sexualité et sexologie/Amour_non_partagé/Amour_non_partagé.xlsx
+++ b/medicine/Sexualité et sexologie/Amour_non_partagé/Amour_non_partagé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amour_non_partag%C3%A9</t>
+          <t>Amour_non_partagé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amour non partagé, ou amour non réciproque, est le cas où l'on éprouve un sentiment amoureux pour une personne qui n'éprouve pas en retour le même genre de sentiment. C'est fréquemment la source d'une souffrance qui peut induire des humeurs douloureuses et durables tels que la dépression, une mauvaise estime de soi, l'anxiété, des sautes d'humeur brutales entre dépression et euphorie. L'amour non réciproque est également la source d'inspiration de nombreuses œuvres d'art.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amour_non_partag%C3%A9</t>
+          <t>Amour_non_partagé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Dr Roy Baumeister, ce qui rend une personne désirable est un mélange complexe et très personnel de nombreuses qualités et traits de caractère. Mais tomber amoureux de quelqu'un qui est beaucoup plus désirable que soi – que ce soit en raison de sa beauté physique ou d'attributs comme le charme, l'intelligence, l'esprit ou le statut – Baumeister appelle ce genre d'inadéquation « enclin à trouver son amour non partagé » et que de telles relations sont en baisse[1]. Selon certains psychologues, les contraires s’attirent[2].
-« Il y a deux mauvais côtés à l'amour non partagé, mais un seul est rendu familier par notre culture »[3] – celui de l'amant, et non celui du rejeteur. En fait, les recherches suggèrent que l’objet d’une affection non partagée éprouve une variété d’émotions négatives comparables à celles du prétendant, notamment l’anxiété, la frustration et la culpabilité[1]. Comme Freud l'a souligné depuis longtemps, « lorsqu'une femme intente une action par amour, rejeter et refuser est un rôle pénible à jouer pour un homme »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Dr Roy Baumeister, ce qui rend une personne désirable est un mélange complexe et très personnel de nombreuses qualités et traits de caractère. Mais tomber amoureux de quelqu'un qui est beaucoup plus désirable que soi – que ce soit en raison de sa beauté physique ou d'attributs comme le charme, l'intelligence, l'esprit ou le statut – Baumeister appelle ce genre d'inadéquation « enclin à trouver son amour non partagé » et que de telles relations sont en baisse. Selon certains psychologues, les contraires s’attirent.
+« Il y a deux mauvais côtés à l'amour non partagé, mais un seul est rendu familier par notre culture » – celui de l'amant, et non celui du rejeteur. En fait, les recherches suggèrent que l’objet d’une affection non partagée éprouve une variété d’émotions négatives comparables à celles du prétendant, notamment l’anxiété, la frustration et la culpabilité. Comme Freud l'a souligné depuis longtemps, « lorsqu'une femme intente une action par amour, rejeter et refuser est un rôle pénible à jouer pour un homme ».
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amour_non_partag%C3%A9</t>
+          <t>Amour_non_partagé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Aspects avantageux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’amour non partagé a longtemps été décrit comme une volonté noble et altruiste d’accepter la souffrance. Les représentations littéraires et artistiques de l’amour non partagé peuvent dépendre d’hypothèses de distance sociale qui ont moins de pertinence dans les sociétés démocratiques occidentales avec une mobilité sociale relativement élevée et des codes de fidélité sexuelle moins rigides. Néanmoins, les écrits littéraires suggèrent un certain degré d'euphorie dans les sentiments associés à l'amour non partagé, qui a également l'avantage de ne comporter aucune des responsabilités des relations mutuelles : il est certain que « le rejet, apparent ou réel, peut être le catalyseur d'un sentiment littéraire inspiré »[5].
-Eric Berne considérait que « l'homme qui est aimé d'une femme a certes de la chance, mais celui qu'il faut envier est celui qui aime, aussi peu qu'il obtienne en retour »[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’amour non partagé a longtemps été décrit comme une volonté noble et altruiste d’accepter la souffrance. Les représentations littéraires et artistiques de l’amour non partagé peuvent dépendre d’hypothèses de distance sociale qui ont moins de pertinence dans les sociétés démocratiques occidentales avec une mobilité sociale relativement élevée et des codes de fidélité sexuelle moins rigides. Néanmoins, les écrits littéraires suggèrent un certain degré d'euphorie dans les sentiments associés à l'amour non partagé, qui a également l'avantage de ne comporter aucune des responsabilités des relations mutuelles : il est certain que « le rejet, apparent ou réel, peut être le catalyseur d'un sentiment littéraire inspiré ».
+Eric Berne considérait que « l'homme qui est aimé d'une femme a certes de la chance, mais celui qu'il faut envier est celui qui aime, aussi peu qu'il obtienne en retour ». 
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amour_non_partag%C3%A9</t>
+          <t>Amour_non_partagé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'amant éconduit peut en éprouver de grandes souffrances, tout en éprouvant simultanément de l'exaltation par le sentiment de plénitude induit par l'idée d'être amoureux, quand bien même cet amour n'est pas payé de retour. Il peut en venir à penser que ces sensations justifient la torture morale à laquelle il est soumis. C'est pourquoi certains préfèreront rester amoureux de la même personne plutôt que de fixer leur désir sur un autre individu.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amour_non_partag%C3%A9</t>
+          <t>Amour_non_partagé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La littérature traitant de l'amour non partagé est vaste.
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amour_non_partag%C3%A9</t>
+          <t>Amour_non_partagé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,7 +671,9 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cycle de lieder La belle meunière de Franz Schubert sur des poèmes de Wilhelm Müller est l'histoire d'un jeune meunier qui tombe amoureux de la fille de son maître. La belle meunière d'abord bienveillante lui préfère ensuite un chasseur. Le désespoir de l'amoureux éconduit le mène au suicide. 
@@ -666,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amour_non_partag%C3%A9</t>
+          <t>Amour_non_partagé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,7 +706,9 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 De nombreux films traitent de ce sujet.
